--- a/Integrated Data.xlsx
+++ b/Integrated Data.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$61</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,9 +39,6 @@
     <t>FBS</t>
   </si>
   <si>
-    <t>Stomach ache history</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Helicobacte</t>
+  </si>
+  <si>
+    <t>Stomach_ache_history</t>
   </si>
 </sst>
 </file>
@@ -369,7 +372,7 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,19 +394,19 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2327,6 +2330,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J61"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Integrated Data.xlsx
+++ b/Integrated Data.xlsx
@@ -45,13 +45,13 @@
     <t>age</t>
   </si>
   <si>
-    <t>Diabet</t>
+    <t>Stomach_ache_history</t>
   </si>
   <si>
-    <t>Helicobacte</t>
+    <t>Helicobacter</t>
   </si>
   <si>
-    <t>Stomach_ache_history</t>
+    <t>Diabetes</t>
   </si>
 </sst>
 </file>
@@ -372,7 +372,7 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,7 +394,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -403,7 +403,7 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>

--- a/Integrated Data.xlsx
+++ b/Integrated Data.xlsx
@@ -1,16 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4071A3D9-9B06-4A95-AC0C-771B23288134}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15576" windowHeight="12048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$61</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$I$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$I$2:$I$61</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$I$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$I$2:$I$61</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$J$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$J$2:$J$61</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$G$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$G$2:$G$61</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$G$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$G$2:$G$61</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$H$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$H$2:$H$61</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -57,7 +70,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -104,6 +117,7319 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Diabetes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DFF7-4521-81F8-C616525473B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="290201935"/>
+        <c:axId val="204033599"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Helicobacter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DFF7-4521-81F8-C616525473B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="290212735"/>
+        <c:axId val="204048159"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="290201935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="204033599"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="204033599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="290201935"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="204048159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="290212735"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="290212735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="204048159"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>age</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A80C-4393-AFAD-7910B93F3B00}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="294239247"/>
+        <c:axId val="413251951"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Diabetes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A80C-4393-AFAD-7910B93F3B00}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="294246847"/>
+        <c:axId val="413248623"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="294239247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413251951"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="413251951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="294239247"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="413248623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="294246847"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="294246847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="413248623"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gender</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-17FB-4463-BE62-75847E6840C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Diabetes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-17FB-4463-BE62-75847E6840C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="397705359"/>
+        <c:axId val="484534463"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="397705359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484534463"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="484534463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397705359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gender</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8D73-440A-832E-11090952C387}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Helicobacter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8D73-440A-832E-11090952C387}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="480433055"/>
+        <c:axId val="484537791"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="480433055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484537791"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="484537791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="480433055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>age</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-04E0-4547-90E2-97524087483B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="430660479"/>
+        <c:axId val="413255695"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Helicobacter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-04E0-4547-90E2-97524087483B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="430654879"/>
+        <c:axId val="413234063"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="430660479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413255695"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="413255695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="430660479"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="413234063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="430654879"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="430654879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="413234063"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.11</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fa-IR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>توزیع سن</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{B9FC5554-7177-48EF-A64B-4C05BDDF0449}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:v>age</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{1FB1B562-2D9E-40E0-9153-E2B97B7E2F12}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:v>Diabetes</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="326">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34B87C6D-636E-494D-93C3-50F62E2774B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Chart 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2117EE28-5AEC-4E69-925C-BA63E242518E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7490460" y="1443990"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0908D0F9-F074-4021-8448-DEFD94B4B0BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A67BB2A-A37C-43F0-9B75-474A224D7C36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01CE5B00-DA38-47D4-A2A2-A0AFE4530025}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C097A5F3-DB69-4381-99EE-4C4B58674A9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -368,16 +7694,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,7 +7735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>8.52</v>
       </c>
@@ -441,7 +7767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>9.6300000000000008</v>
       </c>
@@ -473,7 +7799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>15.66</v>
       </c>
@@ -505,7 +7831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>18.39</v>
       </c>
@@ -537,7 +7863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4.5199999999999996</v>
       </c>
@@ -569,7 +7895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>31.43</v>
       </c>
@@ -601,7 +7927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>30.99</v>
       </c>
@@ -633,7 +7959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>14.33</v>
       </c>
@@ -665,7 +7991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>19.059999999999999</v>
       </c>
@@ -697,7 +8023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>26.3</v>
       </c>
@@ -729,7 +8055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9.3800000000000008</v>
       </c>
@@ -761,7 +8087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4.1500000000000004</v>
       </c>
@@ -793,7 +8119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>29.99</v>
       </c>
@@ -825,7 +8151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5.17</v>
       </c>
@@ -857,7 +8183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>34.31</v>
       </c>
@@ -889,7 +8215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3.25</v>
       </c>
@@ -921,7 +8247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2.13</v>
       </c>
@@ -953,7 +8279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>15.9</v>
       </c>
@@ -985,7 +8311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>21.92</v>
       </c>
@@ -1017,7 +8343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>12.18</v>
       </c>
@@ -1049,7 +8375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>11.3</v>
       </c>
@@ -1081,7 +8407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>9.5</v>
       </c>
@@ -1113,7 +8439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2.1</v>
       </c>
@@ -1145,7 +8471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>6.8</v>
       </c>
@@ -1177,7 +8503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>9.6999999999999993</v>
       </c>
@@ -1209,7 +8535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>5.5</v>
       </c>
@@ -1241,7 +8567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3.66</v>
       </c>
@@ -1273,7 +8599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>8.52</v>
       </c>
@@ -1305,7 +8631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>7.3</v>
       </c>
@@ -1337,7 +8663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>6.81</v>
       </c>
@@ -1369,7 +8695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>17.18</v>
       </c>
@@ -1401,7 +8727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>28.33</v>
       </c>
@@ -1433,7 +8759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>6.04</v>
       </c>
@@ -1465,7 +8791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>7.71</v>
       </c>
@@ -1497,7 +8823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>14.75</v>
       </c>
@@ -1529,7 +8855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>8.51</v>
       </c>
@@ -1561,7 +8887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>39.92</v>
       </c>
@@ -1593,7 +8919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>39.99</v>
       </c>
@@ -1625,7 +8951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>27.39</v>
       </c>
@@ -1657,7 +8983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>8.66</v>
       </c>
@@ -1689,7 +9015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>7.64</v>
       </c>
@@ -1721,7 +9047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2.89</v>
       </c>
@@ -1753,7 +9079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3.62</v>
       </c>
@@ -1785,7 +9111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>19.91</v>
       </c>
@@ -1817,7 +9143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>13.93</v>
       </c>
@@ -1849,7 +9175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>14.73</v>
       </c>
@@ -1881,7 +9207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>25.64</v>
       </c>
@@ -1913,7 +9239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>12.27</v>
       </c>
@@ -1945,7 +9271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>7.5</v>
       </c>
@@ -1977,7 +9303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>20.59</v>
       </c>
@@ -2009,7 +9335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1.98</v>
       </c>
@@ -2041,7 +9367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>5.56</v>
       </c>
@@ -2073,7 +9399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>6.87</v>
       </c>
@@ -2105,7 +9431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>4.59</v>
       </c>
@@ -2137,7 +9463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>6.49</v>
       </c>
@@ -2169,7 +9495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>3.28</v>
       </c>
@@ -2201,7 +9527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2.56</v>
       </c>
@@ -2233,7 +9559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>7.68</v>
       </c>
@@ -2265,7 +9591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>4.6900000000000004</v>
       </c>
@@ -2297,7 +9623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>4.76</v>
       </c>
@@ -2330,7 +9656,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J61"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>